--- a/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
+++ b/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\Goods\GoodsTransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FEA2D-2C98-4CBC-9F6A-C56A4B4B9C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C914-A7C0-4FE3-8AD0-99C301435368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="2115" windowWidth="12825" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>SkuName</t>
   </si>
@@ -39,15 +39,9 @@
     <t>DC</t>
   </si>
   <si>
-    <t>vehicle</t>
-  </si>
-  <si>
     <t>Mandya DC</t>
   </si>
   <si>
-    <t>KA 01 XE 6692</t>
-  </si>
-  <si>
     <t>test SKU 999</t>
   </si>
   <si>
@@ -55,6 +49,114 @@
   </si>
   <si>
     <t>test SKU automation 2</t>
+  </si>
+  <si>
+    <t>KA 03 HR 6692</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>valueText</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>variationName</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>numberOfVariations</t>
+  </si>
+  <si>
+    <t>Parle Agro</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>amountType</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>cessAmount</t>
+  </si>
+  <si>
+    <t>gstRate</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>subCategory</t>
+  </si>
+  <si>
+    <t>Coffee, Tea And Beverages</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>This is test SKU</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>test SKU Local</t>
+  </si>
+  <si>
+    <t>localName</t>
+  </si>
+  <si>
+    <t>skuName</t>
+  </si>
+  <si>
+    <t>itemHSNCode</t>
+  </si>
+  <si>
+    <t>SKU 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU 9</t>
+  </si>
+  <si>
+    <t>SKU 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU 7</t>
+  </si>
+  <si>
+    <t>SKU 6</t>
+  </si>
+  <si>
+    <t>SKU 5</t>
+  </si>
+  <si>
+    <t>SKU 4</t>
+  </si>
+  <si>
+    <t>SKU 3</t>
+  </si>
+  <si>
+    <t>SKU 2</t>
+  </si>
+  <si>
+    <t>SKU 1</t>
+  </si>
+  <si>
+    <t>NoOfSku</t>
   </si>
 </sst>
 </file>
@@ -78,15 +180,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,13 +214,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,67 +616,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1245</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8">
+        <v>180</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
+++ b/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\Goods\GoodsTransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C914-A7C0-4FE3-8AD0-99C301435368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A774735-BB0F-4866-8E85-B13451961ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>SkuName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Mandya DC</t>
   </si>
   <si>
-    <t>test SKU 999</t>
-  </si>
-  <si>
     <t>test SKU automation</t>
   </si>
   <si>
@@ -157,13 +154,55 @@
   </si>
   <si>
     <t>NoOfSku</t>
+  </si>
+  <si>
+    <t>test SKU automation 3</t>
+  </si>
+  <si>
+    <t>test SKU automation 4</t>
+  </si>
+  <si>
+    <t>test SKU automation 5</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>update Stock</t>
+  </si>
+  <si>
+    <t>NoOfItemsVariatoin</t>
+  </si>
+  <si>
+    <t>NoOfSKUforStockUpdation</t>
+  </si>
+  <si>
+    <t>test SKU automation 6</t>
+  </si>
+  <si>
+    <t>test SKU automation 7</t>
+  </si>
+  <si>
+    <t>test SKU automation 8</t>
+  </si>
+  <si>
+    <t>test SKU automation 9</t>
+  </si>
+  <si>
+    <t>test SKU 402</t>
+  </si>
+  <si>
+    <t>test SKU 403</t>
+  </si>
+  <si>
+    <t>test SKU 404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +218,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,10 +344,21 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -305,37 +367,78 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,452 +719,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7">
         <v>1245</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="7">
+        <v>1245</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1245</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
+      <c r="K3" s="8"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
+      <c r="K4" s="8"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
+      <c r="K5" s="8"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
+      <c r="K6" s="8"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
+      <c r="K7" s="8"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
+      <c r="K8" s="8"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
+      <c r="K9" s="8"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
+      <c r="K10" s="8"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
+      <c r="K11" s="8"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="K12" s="8"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+      <c r="K13" s="8"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
+      <c r="K14" s="8"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
+      <c r="K16" s="8"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="K17" s="8"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
         <v>180</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="7">
+        <v>180</v>
+      </c>
+      <c r="D18" s="7">
+        <v>180</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="K18" s="8"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
+      <c r="K19" s="8"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
+      <c r="K20" s="8"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="7">
+        <v>200</v>
+      </c>
+      <c r="D21" s="7">
+        <v>200</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>10</v>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
+      <c r="K22" s="8"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
+      <c r="K23" s="8"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="7">
+        <v>200</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -1072,195 +1288,419 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D32" s="8">
+        <v>20</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="3">
+        <v>50</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D33" s="8">
+        <v>18</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="3">
+        <v>50</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="8">
+        <v>7</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="3">
+        <v>50</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8">
+        <v>8</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>5</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="8">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="E36" s="19"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
+++ b/resources/Goods/GoodsTransfer/GoodsTransfer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\Goods\GoodsTransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A774735-BB0F-4866-8E85-B13451961ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7797B51D-EF38-41B8-9603-1CCB30319524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,13 +190,13 @@
     <t>test SKU automation 9</t>
   </si>
   <si>
-    <t>test SKU 402</t>
-  </si>
-  <si>
-    <t>test SKU 403</t>
-  </si>
-  <si>
-    <t>test SKU 404</t>
+    <t>test SKU 301</t>
+  </si>
+  <si>
+    <t>test SKU 302</t>
+  </si>
+  <si>
+    <t>test SKU 303</t>
   </si>
 </sst>
 </file>
@@ -722,7 +723,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +741,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -814,13 +815,13 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1323,7 +1324,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="15"/>
@@ -1338,7 +1339,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="15"/>
@@ -1378,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -1392,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I32" s="3">
         <v>50</v>
@@ -1405,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
@@ -1419,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" s="3">
         <v>50</v>
@@ -1432,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>43</v>
@@ -1446,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I34" s="3">
         <v>50</v>
@@ -1459,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>45</v>
@@ -1480,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>52</v>
@@ -1501,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>53</v>
